--- a/SuppXLS/Scen_PWR_High_RNW.xlsx
+++ b/SuppXLS/Scen_PWR_High_RNW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8463A95B-D5B0-47E1-870E-704062E6B210}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E2148D-6074-4689-AF85-BACAB53F56C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="5" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="100">
   <si>
     <t>Development</t>
   </si>
@@ -361,12 +361,51 @@
   <si>
     <t>Solar PV potenatial</t>
   </si>
+  <si>
+    <t>UC_Max_PV_Cap</t>
+  </si>
+  <si>
+    <t>P*SOL-PV*</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>Minimum solar PV capacity</t>
+  </si>
+  <si>
+    <t>UC_Min_PV_Cap</t>
+  </si>
+  <si>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>Maximum solar PV capacity</t>
+  </si>
+  <si>
+    <t>~TFM_DINS-TS</t>
+  </si>
+  <si>
+    <t>PSET_PN</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>user_constraint</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,8 +461,185 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,8 +676,171 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -528,12 +907,254 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,10 +1181,95 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="72">
+    <cellStyle name="20% - Accent1 2" xfId="42" xr:uid="{E068B2D2-3A75-42A4-A243-DF9A779C4495}"/>
+    <cellStyle name="20% - Accent2 2" xfId="46" xr:uid="{106036C5-0A21-4E11-8539-5301AA181EA1}"/>
+    <cellStyle name="20% - Accent3 2" xfId="50" xr:uid="{27799E2C-3554-4C97-9314-A7588B99F36F}"/>
+    <cellStyle name="20% - Accent4 2" xfId="54" xr:uid="{7A0DF80A-C773-4F4F-BCB7-F55D9A4C4379}"/>
+    <cellStyle name="20% - Accent5 2" xfId="58" xr:uid="{D11C0755-89C2-4578-8FEB-238019CEF3B5}"/>
+    <cellStyle name="20% - Accent6 2" xfId="62" xr:uid="{CBA8B333-1E79-448A-B93D-AA9220D66C70}"/>
+    <cellStyle name="2x indented GHG Textfiels" xfId="19" xr:uid="{C38AC643-F958-4692-9CF6-55452DFA1229}"/>
+    <cellStyle name="40% - Accent1 2" xfId="43" xr:uid="{D50DEBF5-D9EB-4169-857A-31E2CC1BFCF9}"/>
+    <cellStyle name="40% - Accent2 2" xfId="47" xr:uid="{46F6A78D-2349-45D8-91C0-317A82053051}"/>
+    <cellStyle name="40% - Accent3 2" xfId="51" xr:uid="{7FBD14E5-A12A-46AE-AB17-F0A6B602C156}"/>
+    <cellStyle name="40% - Accent4 2" xfId="55" xr:uid="{F4CE94D2-36AA-4098-A204-05EE61384604}"/>
+    <cellStyle name="40% - Accent5 2" xfId="59" xr:uid="{6B6FEDD4-D382-46B4-BF4E-42F880E7F9E0}"/>
+    <cellStyle name="40% - Accent6 2" xfId="63" xr:uid="{49323235-4E97-4CA1-9EE6-785E8B4B533F}"/>
+    <cellStyle name="60% - Accent1 2" xfId="44" xr:uid="{7FB8A396-A124-44FE-B5DD-388BA159008B}"/>
+    <cellStyle name="60% - Accent2 2" xfId="48" xr:uid="{6591A8AC-8947-4F85-B14B-7176CF854C2F}"/>
+    <cellStyle name="60% - Accent3 2" xfId="52" xr:uid="{5CF2C421-5B76-4C97-ACDC-4CA31AF97750}"/>
+    <cellStyle name="60% - Accent4 2" xfId="56" xr:uid="{4250E429-1D42-4C63-93BC-1A85CB9502F5}"/>
+    <cellStyle name="60% - Accent5 2" xfId="60" xr:uid="{30AB86E2-217A-48EF-81A6-C81E121BE32A}"/>
+    <cellStyle name="60% - Accent6 2" xfId="64" xr:uid="{FB1730A5-3A24-43B0-A046-77526952B4DB}"/>
+    <cellStyle name="Accent2 2" xfId="45" xr:uid="{FC79F96E-9682-4137-87A2-D26AD3136B29}"/>
+    <cellStyle name="Accent3 2" xfId="49" xr:uid="{F0413CD3-542A-41B9-A80D-5CCCE1054714}"/>
+    <cellStyle name="Accent4 2" xfId="53" xr:uid="{FD5A9111-9B60-4022-9A23-2FFD6C972B37}"/>
+    <cellStyle name="Accent5 2" xfId="57" xr:uid="{DD06183E-9DDD-45A6-A96F-1AF10BD5503D}"/>
+    <cellStyle name="Accent6 2" xfId="61" xr:uid="{480D3237-3A5E-4A57-A0C4-B1997CA0DE8C}"/>
+    <cellStyle name="Bad 2" xfId="32" xr:uid="{B70FA3B3-1157-4571-BE9F-A88E861C8626}"/>
+    <cellStyle name="Calculation 2" xfId="36" xr:uid="{FE0A9F06-115D-467F-8BA1-8F82011820DF}"/>
+    <cellStyle name="Check Cell 2" xfId="38" xr:uid="{B236E906-3D5D-4C39-BC43-5698D6C8F6DC}"/>
+    <cellStyle name="Comma 2" xfId="10" xr:uid="{5DD514D6-B36F-4A32-8DD1-3DAE030E6169}"/>
+    <cellStyle name="Comma 2 2" xfId="11" xr:uid="{6D8BBF0B-91B2-4DCD-8F0F-27D3DD2CD5C2}"/>
+    <cellStyle name="Comma 2 2 2" xfId="14" xr:uid="{9558D94C-ADF1-4996-9FC3-70D3CD85A227}"/>
+    <cellStyle name="Comma 2 2 3" xfId="23" xr:uid="{BAF01E30-13FB-4EFB-8D0B-5667FE2F0C07}"/>
+    <cellStyle name="Comma 2 2 4" xfId="68" xr:uid="{B6AF9612-3B76-4A03-B2A6-013CF924D9F3}"/>
+    <cellStyle name="Comma 2 3" xfId="13" xr:uid="{2A74C310-6214-406F-956A-8DEE17889FE1}"/>
+    <cellStyle name="Comma 2 3 2" xfId="24" xr:uid="{20D28ADD-3B04-4032-AEFF-57F390623C38}"/>
+    <cellStyle name="Comma 2 3 3" xfId="69" xr:uid="{460590EA-12DC-4FD0-BF60-CEA1A15C9C48}"/>
+    <cellStyle name="Comma 2 4" xfId="20" xr:uid="{569E5502-B259-4DBA-8305-372E89D0ADBB}"/>
+    <cellStyle name="Comma 2 5" xfId="67" xr:uid="{58F727BB-9B3B-4386-8D73-51EF87412DAC}"/>
+    <cellStyle name="Comma 3" xfId="12" xr:uid="{1B486986-3A49-487C-A124-C73C593DD441}"/>
+    <cellStyle name="Comma 3 2" xfId="25" xr:uid="{38CBD896-D9F0-4361-A629-825266A17BB9}"/>
+    <cellStyle name="Comma 3 3" xfId="70" xr:uid="{8A4A80D7-4C72-4B49-8986-CEC3B4F5385A}"/>
+    <cellStyle name="Comma 4" xfId="65" xr:uid="{2E5E037B-DECD-4619-BDB0-F62F149117CC}"/>
+    <cellStyle name="Comma 4 2" xfId="71" xr:uid="{4F07AD48-8B53-4766-AEEB-D2D1EB34EF58}"/>
+    <cellStyle name="Comma 5" xfId="15" xr:uid="{C257A210-46FC-49F1-9EDF-EC8B963D794D}"/>
+    <cellStyle name="Comma 5 2" xfId="66" xr:uid="{BDC2978D-82EC-4758-B573-842A5FA122A4}"/>
+    <cellStyle name="Explanatory Text 2" xfId="40" xr:uid="{83717838-FADC-469C-AF68-67A7858C27C2}"/>
+    <cellStyle name="Good 2" xfId="31" xr:uid="{F8569340-EF53-4854-9FC2-12386CECEAB1}"/>
+    <cellStyle name="Heading 1 2" xfId="27" xr:uid="{8F931E5C-07AD-4FBE-AB1C-03501DC0A131}"/>
+    <cellStyle name="Heading 2 2" xfId="28" xr:uid="{BFBFAF6C-FD72-44D4-96AB-897F20AA16BF}"/>
+    <cellStyle name="Heading 3 2" xfId="29" xr:uid="{D8B95F4B-CEE3-4D8A-BFF7-D343CDEA7147}"/>
+    <cellStyle name="Heading 4 2" xfId="30" xr:uid="{A78A5B24-54DE-4779-89AB-9BD9BF65211E}"/>
+    <cellStyle name="Input 2" xfId="34" xr:uid="{A29097F5-6D23-46E5-9BE1-227F00FBBAFB}"/>
+    <cellStyle name="Linked Cell 2" xfId="37" xr:uid="{AE087D08-CE0D-4B73-A0E3-FBE69C8952D9}"/>
+    <cellStyle name="Neutral 2" xfId="33" xr:uid="{A04AFE2C-E8F3-4ED6-A365-A8E34C31FBB3}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="3" xr:uid="{CE9A50F9-EFFD-4448-8618-2F430B149AEB}"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B9BEF917-565E-4EDA-9195-3F99C927375D}"/>
+    <cellStyle name="Normal 2 2" xfId="22" xr:uid="{D9A8EE0A-1C6A-4B8B-B3ED-21641D114892}"/>
+    <cellStyle name="Normal 2 3" xfId="2" xr:uid="{AD11FA15-E3A2-47CE-949E-7167057BB034}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{6A129E6F-A5AC-40F5-AAE3-A9887F76C512}"/>
+    <cellStyle name="Normal 3 2" xfId="16" xr:uid="{0734D47B-D071-4311-8330-15A5274A16AB}"/>
+    <cellStyle name="Normal 4" xfId="17" xr:uid="{0DCE9068-6DE8-421A-B5E2-EA47FC17CA08}"/>
+    <cellStyle name="Normal 5" xfId="7" xr:uid="{694FB5B5-F607-4F2E-AFE7-9453BA1D8229}"/>
+    <cellStyle name="Normal 5 2" xfId="18" xr:uid="{38B35955-61F8-4264-BC2E-87A46F815DEE}"/>
+    <cellStyle name="Normal 5 2 2" xfId="8" xr:uid="{2032760E-0E99-4206-9AE5-665AF07EBD94}"/>
+    <cellStyle name="Normal 6" xfId="21" xr:uid="{A08FAC7D-9AC7-4B1A-B955-A9C6E7E88B15}"/>
+    <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="4" xr:uid="{D79AEC2F-2456-4E18-B071-9C9142028956}"/>
+    <cellStyle name="Output 2" xfId="35" xr:uid="{CC43F36F-6D81-4902-8471-E0F7DBDC710C}"/>
+    <cellStyle name="Percent 2" xfId="6" xr:uid="{B2FACF1C-FEF0-401C-9C69-B2A8101958CA}"/>
+    <cellStyle name="Percent 3" xfId="9" xr:uid="{4CF1E86E-4E8F-4173-8E78-32A7F8482924}"/>
+    <cellStyle name="Title 2" xfId="26" xr:uid="{E5F6853A-121C-4E94-90D3-1358C656A6FE}"/>
+    <cellStyle name="Total 2" xfId="41" xr:uid="{23E3C770-104E-43D3-B99D-B4E928DA2BB2}"/>
+    <cellStyle name="Warning Text 2" xfId="39" xr:uid="{96C4394A-48A9-43F9-8D5C-E8BBF608EC9E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1676,7 +2382,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1751,7 +2457,7 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -1838,7 +2544,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1913,7 +2619,7 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>2.5000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -1998,15 +2704,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BEFAF49-AD5C-40FF-B989-C692C935029F}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.28515625" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2015,20 +2724,10 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="B2" s="8" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,"~UC_Sets: R_E:",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
-        <v>~UC_Sets: R_E: IE,National</v>
-      </c>
+      <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="B3" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="J4" t="s">
-        <v>62</v>
-      </c>
+      <c r="B3" s="8"/>
     </row>
     <row r="5" spans="1:14">
       <c r="B5" s="9" t="s">
@@ -2140,6 +2839,284 @@
         <v>18</v>
       </c>
       <c r="M8" s="12"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="24">
+        <v>2030</v>
+      </c>
+      <c r="H13" s="24">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="30">
+      <c r="B14" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="24">
+        <f>+L7</f>
+        <v>16.8</v>
+      </c>
+      <c r="H14" s="25">
+        <f>+L8</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17">
+      <c r="B20" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" s="19"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="B21" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="21">
+        <v>2023</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="17">
+        <v>1</v>
+      </c>
+      <c r="I21" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="21"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="22"/>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="B22" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="21">
+        <v>2025</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="17">
+        <v>1</v>
+      </c>
+      <c r="I22" s="23">
+        <v>2.5</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="K22" s="21"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="22"/>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="B23" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="21">
+        <v>2025</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="17">
+        <v>1</v>
+      </c>
+      <c r="I23" s="23">
+        <v>5</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="K23" s="21"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="22"/>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="B24" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="21">
+        <v>2030</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="17">
+        <v>1</v>
+      </c>
+      <c r="I24" s="23">
+        <v>8</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="K24" s="21"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="22"/>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="B25" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="21">
+        <v>2040</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="17">
+        <v>1</v>
+      </c>
+      <c r="I25" s="23">
+        <v>10</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="K25" s="21"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="22"/>
+    </row>
+    <row r="26" spans="2:17">
+      <c r="B26" s="21"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="21">
+        <v>0</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="17"/>
+      <c r="I26" s="23">
+        <v>5</v>
+      </c>
+      <c r="J26" s="17"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
